--- a/Otorgamiento/Mapeos_EVE_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_EVE_Otorgamiento_V1.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="675" windowWidth="9225" windowHeight="4350" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="4290" windowWidth="20325" windowHeight="3870" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB_CONCEPTO_GERENTE" sheetId="8" r:id="rId1"/>
-    <sheet name="DB_ANEXO_ANALISTA" sheetId="9" r:id="rId2"/>
-    <sheet name="DB_DECISION_EMPRESARIAL" sheetId="10" r:id="rId3"/>
+    <sheet name="DB_CONCEPTO_GERENTE_BANCA" sheetId="11" r:id="rId2"/>
+    <sheet name="DB_ANEXO_ANALISTA" sheetId="9" r:id="rId3"/>
+    <sheet name="DB_DECISION_EMPRESARIAL" sheetId="10" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Asset_Name">[1]ReadMe!$C$1</definedName>
@@ -559,8 +560,186 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dlira</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Este numero debe ser unico, ya que identifica cada uno de los campos que componen la interface de origen. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Detallar solo si aplica.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Identificador unico, este numero debe ser correlativo con el identificador de los campos de la interface de entrada. No debe repetirse.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre de la regla.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Este campo define como encontrar la regla dentro del documentod e reglas asociado.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Este indice corresponde al componente que quedara en el campo destino. Puede referirse tanto a un campo de entrada (carga directa sin regla asociada) o a una regla especifica ubicada dentro del documento de reglas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dlira:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Considerar solo si es aplicable.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="178">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -844,9 +1023,6 @@
     <t xml:space="preserve">Busqueda del Tipo Ciclo Decisión </t>
   </si>
   <si>
-    <t>Validaciones Generales DB_CONCEPTO_GERENTE /4. Búsqueda del Tipo Evento Banca</t>
-  </si>
-  <si>
     <t>ID_CON</t>
   </si>
   <si>
@@ -871,12 +1047,6 @@
     <t>Upsert REL_EVE_CON_SOL (Gerente-Solicitud)</t>
   </si>
   <si>
-    <t>Upsert REL_EVE_CON_SOL ( Gerente - Banca - Solicitud)</t>
-  </si>
-  <si>
-    <t>Búsqueda de Fecha Tipo Ciclo BC</t>
-  </si>
-  <si>
     <t>ID_ANEXO_ANALISTA</t>
   </si>
   <si>
@@ -1003,36 +1173,15 @@
     <t>Poner aquí: NULL</t>
   </si>
   <si>
-    <t>Validaciones Generales DB_CONCEPTO_GERENTE /5. Búsqueda del Id Solicitud</t>
-  </si>
-  <si>
-    <t>Validaciones Generales DB_CONCEPTO_GERENTE /6. Búsqueda del Id Evento</t>
-  </si>
-  <si>
     <t>Búsqueda del Id Solicitud Evento</t>
   </si>
   <si>
-    <t>Validaciones Generales DB_CONCEPTO_GERENTE /7. Búsqueda del Id Solicitud Evento</t>
-  </si>
-  <si>
-    <t>Validaciones Generales DB_CONCEPTO_GERENTE /8. Búsqueda de Fecha Tipo Ciclo</t>
-  </si>
-  <si>
-    <t>Validaciones Generales DB_CONCEPTO_GERENTE /9. Búsqueda de Fecha Tipo Ciclo BC</t>
-  </si>
-  <si>
     <t>Búsqueda del Id Solicitud BC</t>
   </si>
   <si>
     <t>Validaciones Generales DB_CONCEPTO_GERENTE /10. Búsqueda del Id Solicitud BC</t>
   </si>
   <si>
-    <t>Búsqueda del Id Evento BC</t>
-  </si>
-  <si>
-    <t>Validaciones Generales DB_CONCEPTO_GERENTE /11. Búsqueda del Id Evento BC</t>
-  </si>
-  <si>
     <t>NO_ACT</t>
   </si>
   <si>
@@ -1079,6 +1228,51 @@
   </si>
   <si>
     <t>Validaciones Generales DB_DECISION_EMPRESARIAL /6. Búsqueda Unico en Sistema Fuente</t>
+  </si>
+  <si>
+    <t>DB_CONCEPTO_GERENTE_BANCA</t>
+  </si>
+  <si>
+    <t>ID_CONCEPTOGERENTE_BANCA</t>
+  </si>
+  <si>
+    <t>Upsert REL_EVE_CON_SOL ( Gerente Banca - Solicitud)</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE /5. Búsqueda del Id Evento</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE /4. Búsqueda del Id Solicitud</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE /6. Búsqueda del Id Solicitud Evento</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE /7. Búsqueda de Fecha Tipo Ciclo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE /8. Búsqueda de Id Tipo Ciclo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE_BANCA /1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE_BANCA /2. Búsqueda del id de la fuente</t>
+  </si>
+  <si>
+    <t>Búsqueda del Id Evento</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE /6. Búsqueda del Tipo Relacion</t>
+  </si>
+  <si>
+    <t>Búsqueda del Tipo Relacion</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_CONCEPTO_GERENTE /8. Búsqueda de Id Sistema Fuente</t>
+  </si>
+  <si>
+    <t>Búsqueda de Id Sistema Fuente</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2231,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2222,73 +2416,10 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2303,6 +2434,82 @@
     <xf numFmtId="0" fontId="27" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2788,7 +2995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2796,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S50"/>
+  <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="L31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView topLeftCell="I24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2837,28 +3044,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -2871,11 +3078,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="69"/>
       <c r="I4" s="24" t="s">
@@ -2888,11 +3095,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
       <c r="H5" s="70"/>
       <c r="I5" s="28" t="s">
@@ -2909,30 +3116,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
     </row>
     <row r="8" spans="2:19" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3008,10 +3215,10 @@
       <c r="J9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="102" t="s">
+      <c r="K9" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="100"/>
+      <c r="L9" s="79"/>
       <c r="M9" s="59">
         <v>20</v>
       </c>
@@ -3050,10 +3257,10 @@
       <c r="J10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="100"/>
+      <c r="L10" s="79"/>
       <c r="M10" s="33">
         <v>23</v>
       </c>
@@ -3092,10 +3299,10 @@
       <c r="J11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="100"/>
+      <c r="L11" s="79"/>
       <c r="M11" s="33">
         <v>2</v>
       </c>
@@ -3136,10 +3343,10 @@
       <c r="J12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="100"/>
+      <c r="L12" s="79"/>
       <c r="M12" s="60">
         <v>21</v>
       </c>
@@ -3178,10 +3385,10 @@
       <c r="J13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="100"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="60">
         <v>22</v>
       </c>
@@ -3222,10 +3429,10 @@
       <c r="J14" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="100"/>
+      <c r="L14" s="79"/>
       <c r="M14" s="60">
         <v>25</v>
       </c>
@@ -3264,10 +3471,10 @@
       <c r="J15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="100"/>
+      <c r="K15" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="79"/>
       <c r="M15" s="60">
         <v>24</v>
       </c>
@@ -3304,12 +3511,12 @@
         <v>27</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="100"/>
+        <v>142</v>
+      </c>
+      <c r="K16" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="79"/>
       <c r="M16" s="60">
         <v>24</v>
       </c>
@@ -3346,12 +3553,12 @@
         <v>28</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="100"/>
+        <v>99</v>
+      </c>
+      <c r="K17" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="79"/>
       <c r="M17" s="60">
         <v>24</v>
       </c>
@@ -3388,12 +3595,12 @@
         <v>29</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="L18" s="100"/>
+        <v>98</v>
+      </c>
+      <c r="K18" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="79"/>
       <c r="M18" s="60">
         <v>24</v>
       </c>
@@ -3430,12 +3637,12 @@
         <v>30</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="100"/>
+        <v>144</v>
+      </c>
+      <c r="K19" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="79"/>
       <c r="M19" s="32">
         <v>5</v>
       </c>
@@ -3469,34 +3676,34 @@
       <c r="G20" s="72"/>
       <c r="H20" s="99"/>
       <c r="I20" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" s="100"/>
-      <c r="M20" s="59">
-        <v>20</v>
-      </c>
-      <c r="N20" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q20" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="79"/>
+      <c r="M20" s="40">
+        <v>28</v>
+      </c>
+      <c r="N20" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="64"/>
+      <c r="P20" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="74" t="s">
+      <c r="R20" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="41"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="63"/>
+    </row>
+    <row r="21" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="50">
         <v>13</v>
       </c>
@@ -3510,33 +3717,33 @@
       <c r="F21" s="47"/>
       <c r="G21" s="72"/>
       <c r="H21" s="99"/>
-      <c r="I21" s="33">
-        <v>32</v>
-      </c>
-      <c r="J21" s="24" t="s">
+      <c r="I21" s="32">
+        <v>33</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="79"/>
+      <c r="M21" s="33">
+        <v>29</v>
+      </c>
+      <c r="N21" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="100"/>
-      <c r="M21" s="33">
-        <v>23</v>
-      </c>
-      <c r="N21" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="36"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="34"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="50">
@@ -3554,33 +3761,24 @@
       <c r="F22" s="47"/>
       <c r="G22" s="72"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="33">
-        <v>33</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="100"/>
+      <c r="L22" s="79"/>
       <c r="M22" s="33">
-        <v>2</v>
-      </c>
-      <c r="N22" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="R22" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="34"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="50">
@@ -3598,35 +3796,26 @@
       <c r="F23" s="47"/>
       <c r="G23" s="72"/>
       <c r="H23" s="99"/>
-      <c r="I23" s="33">
-        <v>34</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="K23" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="60">
-        <v>21</v>
-      </c>
-      <c r="N23" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O23" s="31"/>
-      <c r="P23" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="73" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="102">
+        <v>32</v>
+      </c>
+      <c r="N23" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="70"/>
+      <c r="P23" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="R23" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="36"/>
-    </row>
-    <row r="24" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="105"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="50">
         <v>16</v>
       </c>
@@ -3642,33 +3831,24 @@
       <c r="F24" s="46"/>
       <c r="G24" s="56"/>
       <c r="H24" s="99"/>
-      <c r="I24" s="32">
-        <v>35</v>
-      </c>
-      <c r="J24" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="101"/>
-      <c r="M24" s="60">
-        <v>22</v>
-      </c>
-      <c r="N24" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="36"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="33">
+        <v>24</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="34"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="50">
@@ -3687,23 +3867,23 @@
       <c r="G25" s="56"/>
       <c r="H25" s="44"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="60">
+      <c r="M25" s="33">
         <v>26</v>
       </c>
-      <c r="N25" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25" s="31"/>
-      <c r="P25" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q25" s="73" t="s">
+      <c r="N25" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="S25" s="36"/>
+      <c r="R25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="34"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="50">
@@ -3720,23 +3900,23 @@
       <c r="G26" s="56"/>
       <c r="H26" s="44"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="60">
-        <v>24</v>
-      </c>
-      <c r="N26" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="31"/>
-      <c r="P26" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q26" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="73" t="s">
+      <c r="M26" s="33">
+        <v>21</v>
+      </c>
+      <c r="N26" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="36"/>
+      <c r="S26" s="34"/>
     </row>
     <row r="27" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="51">
@@ -3753,483 +3933,63 @@
       <c r="G27" s="58"/>
       <c r="H27" s="53"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="60">
-        <v>24</v>
-      </c>
-      <c r="N27" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="31"/>
-      <c r="P27" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q27" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="73" t="s">
+      <c r="M27" s="33">
+        <v>22</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="36"/>
+      <c r="S27" s="34"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L28" s="12"/>
-      <c r="M28" s="60">
-        <v>24</v>
-      </c>
-      <c r="N28" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q28" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" s="73" t="s">
+      <c r="M28" s="33">
+        <v>3</v>
+      </c>
+      <c r="N28" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="36"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L29" s="12"/>
-      <c r="M29" s="60">
-        <v>24</v>
-      </c>
-      <c r="N29" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q29" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="R29" s="73" t="s">
+      <c r="S28" s="34"/>
+    </row>
+    <row r="29" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="43"/>
+      <c r="M29" s="106">
+        <v>33</v>
+      </c>
+      <c r="N29" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="O29" s="108"/>
+      <c r="P29" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="36"/>
-    </row>
-    <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L30" s="12"/>
-      <c r="M30" s="32">
-        <v>24</v>
-      </c>
-      <c r="N30" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q30" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="R30" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="66"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L31" s="12"/>
-      <c r="M31" s="40">
-        <v>29</v>
-      </c>
-      <c r="N31" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="O31" s="64"/>
-      <c r="P31" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q31" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="R31" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="S31" s="63"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L32" s="12"/>
-      <c r="M32" s="33">
-        <v>28</v>
-      </c>
-      <c r="N32" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q32" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="S32" s="34"/>
-    </row>
-    <row r="33" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L33" s="12"/>
-      <c r="M33" s="33">
-        <v>30</v>
-      </c>
-      <c r="N33" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q33" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="34"/>
-    </row>
-    <row r="34" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L34" s="12"/>
-      <c r="M34" s="123">
-        <v>32</v>
-      </c>
-      <c r="N34" s="124" t="s">
-        <v>102</v>
-      </c>
-      <c r="O34" s="70"/>
-      <c r="P34" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="S34" s="126"/>
-    </row>
-    <row r="35" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L35" s="12"/>
-      <c r="M35" s="33">
-        <v>24</v>
-      </c>
-      <c r="N35" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q35" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R35" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="S35" s="34"/>
-    </row>
-    <row r="36" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L36" s="52"/>
-      <c r="M36" s="33">
-        <v>26</v>
-      </c>
-      <c r="N36" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="O36" s="28"/>
-      <c r="P36" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q36" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="34"/>
-    </row>
-    <row r="37" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L37" s="52"/>
-      <c r="M37" s="33">
-        <v>21</v>
-      </c>
-      <c r="N37" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="O37" s="28"/>
-      <c r="P37" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q37" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R37" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S37" s="34"/>
-    </row>
-    <row r="38" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L38" s="52"/>
-      <c r="M38" s="33">
-        <v>22</v>
-      </c>
-      <c r="N38" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S38" s="34"/>
-    </row>
-    <row r="39" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L39" s="52"/>
-      <c r="M39" s="33">
-        <v>3</v>
-      </c>
-      <c r="N39" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="O39" s="28"/>
-      <c r="P39" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q39" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="R39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S39" s="34"/>
-    </row>
-    <row r="40" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L40" s="52"/>
-      <c r="M40" s="127">
-        <v>33</v>
-      </c>
-      <c r="N40" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="O40" s="129"/>
-      <c r="P40" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q40" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="R40" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="S40" s="131"/>
-    </row>
-    <row r="41" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L41" s="52"/>
-      <c r="M41" s="40">
-        <v>31</v>
-      </c>
-      <c r="N41" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="O41" s="64"/>
-      <c r="P41" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q41" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="R41" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="S41" s="63"/>
-    </row>
-    <row r="42" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L42" s="52"/>
-      <c r="M42" s="33">
-        <v>28</v>
-      </c>
-      <c r="N42" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O42" s="28"/>
-      <c r="P42" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q42" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="R42" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="S42" s="34"/>
-    </row>
-    <row r="43" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L43" s="52"/>
-      <c r="M43" s="33">
-        <v>31</v>
-      </c>
-      <c r="N43" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O43" s="28"/>
-      <c r="P43" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q43" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="S43" s="34"/>
-    </row>
-    <row r="44" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L44" s="52"/>
-      <c r="M44" s="123">
-        <v>34</v>
-      </c>
-      <c r="N44" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="O44" s="70"/>
-      <c r="P44" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q44" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="R44" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="S44" s="126"/>
-    </row>
-    <row r="45" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L45" s="52"/>
-      <c r="M45" s="33">
-        <v>24</v>
-      </c>
-      <c r="N45" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O45" s="28"/>
-      <c r="P45" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q45" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="S45" s="34"/>
-    </row>
-    <row r="46" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L46" s="52"/>
-      <c r="M46" s="33">
-        <v>35</v>
-      </c>
-      <c r="N46" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O46" s="28"/>
-      <c r="P46" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q46" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S46" s="34"/>
-    </row>
-    <row r="47" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L47" s="52"/>
-      <c r="M47" s="33">
-        <v>21</v>
-      </c>
-      <c r="N47" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O47" s="28"/>
-      <c r="P47" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q47" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R47" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S47" s="34"/>
-    </row>
-    <row r="48" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L48" s="52"/>
-      <c r="M48" s="33">
-        <v>22</v>
-      </c>
-      <c r="N48" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O48" s="28"/>
-      <c r="P48" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="34"/>
-    </row>
-    <row r="49" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L49" s="52"/>
-      <c r="M49" s="33">
-        <v>3</v>
-      </c>
-      <c r="N49" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O49" s="28"/>
-      <c r="P49" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q49" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="R49" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="34"/>
-    </row>
-    <row r="50" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L50" s="43"/>
-      <c r="M50" s="127">
-        <v>33</v>
-      </c>
-      <c r="N50" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="O50" s="129"/>
-      <c r="P50" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="R50" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="131"/>
+      <c r="S29" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4250,10 +4010,871 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="93" style="3" customWidth="1"/>
+    <col min="12" max="12" width="2" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="55.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="35" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+    </row>
+    <row r="8" spans="2:19" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="79"/>
+      <c r="M8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="48">
+        <v>1</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="136">
+        <v>9</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="79"/>
+      <c r="M9" s="59">
+        <v>9</v>
+      </c>
+      <c r="N9" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="41"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="50">
+        <v>2</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="50">
+        <v>10</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="79"/>
+      <c r="M10" s="33">
+        <v>12</v>
+      </c>
+      <c r="N10" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="50">
+        <v>3</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="50">
+        <v>11</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="79"/>
+      <c r="M11" s="33">
+        <v>2</v>
+      </c>
+      <c r="N11" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="50">
+        <v>4</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="45">
+        <v>15</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="50">
+        <v>12</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="79"/>
+      <c r="M12" s="60">
+        <v>10</v>
+      </c>
+      <c r="N12" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="31"/>
+      <c r="P12" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="50">
+        <v>5</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="50">
+        <v>13</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="79"/>
+      <c r="M13" s="60">
+        <v>11</v>
+      </c>
+      <c r="N13" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="31"/>
+      <c r="P13" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="50">
+        <v>6</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="45">
+        <v>50</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="50">
+        <v>14</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="79"/>
+      <c r="M14" s="60">
+        <v>14</v>
+      </c>
+      <c r="N14" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="31"/>
+      <c r="P14" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="50">
+        <v>7</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="50">
+        <v>15</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="79"/>
+      <c r="M15" s="60">
+        <v>13</v>
+      </c>
+      <c r="N15" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="31"/>
+      <c r="P15" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="51">
+        <v>8</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="50">
+        <v>16</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="79"/>
+      <c r="M16" s="60">
+        <v>13</v>
+      </c>
+      <c r="N16" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="31"/>
+      <c r="P16" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H17" s="42"/>
+      <c r="I17" s="50">
+        <v>17</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="79"/>
+      <c r="M17" s="60">
+        <v>13</v>
+      </c>
+      <c r="N17" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="31"/>
+      <c r="P17" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H18" s="42"/>
+      <c r="I18" s="50">
+        <v>18</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" s="79"/>
+      <c r="M18" s="60">
+        <v>13</v>
+      </c>
+      <c r="N18" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="31"/>
+      <c r="P18" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="8:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="42"/>
+      <c r="I19" s="50">
+        <v>19</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="79"/>
+      <c r="M19" s="32">
+        <v>5</v>
+      </c>
+      <c r="N19" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="39"/>
+      <c r="P19" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="66"/>
+    </row>
+    <row r="20" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="H20" s="42"/>
+      <c r="I20" s="33">
+        <v>21</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="79"/>
+      <c r="M20" s="40">
+        <v>15</v>
+      </c>
+      <c r="N20" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" s="64"/>
+      <c r="P20" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="63"/>
+    </row>
+    <row r="21" spans="8:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="43"/>
+      <c r="I21" s="32">
+        <v>22</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="79"/>
+      <c r="M21" s="33">
+        <v>17</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="34"/>
+    </row>
+    <row r="22" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="L22" s="79"/>
+      <c r="M22" s="33">
+        <v>18</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="34"/>
+    </row>
+    <row r="23" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="L23" s="12"/>
+      <c r="M23" s="102">
+        <v>21</v>
+      </c>
+      <c r="N23" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" s="70"/>
+      <c r="P23" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="105"/>
+    </row>
+    <row r="24" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="L24" s="12"/>
+      <c r="M24" s="33">
+        <v>13</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="34"/>
+    </row>
+    <row r="25" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="L25" s="12"/>
+      <c r="M25" s="33">
+        <v>19</v>
+      </c>
+      <c r="N25" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="34"/>
+    </row>
+    <row r="26" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="L26" s="12"/>
+      <c r="M26" s="33">
+        <v>10</v>
+      </c>
+      <c r="N26" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="34"/>
+    </row>
+    <row r="27" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="L27" s="12"/>
+      <c r="M27" s="33">
+        <v>11</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="34"/>
+    </row>
+    <row r="28" spans="8:19" x14ac:dyDescent="0.2">
+      <c r="L28" s="12"/>
+      <c r="M28" s="33">
+        <v>3</v>
+      </c>
+      <c r="N28" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="34"/>
+    </row>
+    <row r="29" spans="8:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="43"/>
+      <c r="M29" s="106">
+        <v>22</v>
+      </c>
+      <c r="N29" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="O29" s="108"/>
+      <c r="P29" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4291,28 +4912,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
+      <c r="D2" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -4325,11 +4946,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="69"/>
       <c r="I4" s="24" t="s">
@@ -4342,11 +4963,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
       <c r="H5" s="70"/>
       <c r="I5" s="28" t="s">
@@ -4363,30 +4984,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
     </row>
     <row r="8" spans="2:19" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -4445,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" s="84" t="s">
         <v>41</v>
@@ -4462,8 +5083,8 @@
       <c r="J9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="102" t="s">
-        <v>120</v>
+      <c r="K9" s="100" t="s">
+        <v>117</v>
       </c>
       <c r="L9" s="79"/>
       <c r="M9" s="59">
@@ -4531,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" s="88" t="s">
         <v>38</v>
@@ -4573,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="88" t="s">
         <v>40</v>
@@ -4589,7 +5210,7 @@
         <v>37</v>
       </c>
       <c r="K12" s="72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L12" s="79"/>
       <c r="M12" s="60">
@@ -4615,10 +5236,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="89"/>
@@ -4657,10 +5278,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E14" s="88"/>
       <c r="F14" s="89"/>
@@ -4673,7 +5294,7 @@
         <v>87</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L14" s="79"/>
       <c r="M14" s="60">
@@ -4699,10 +5320,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" s="88"/>
       <c r="F15" s="89"/>
@@ -4712,10 +5333,10 @@
         <v>21</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K15" s="72" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L15" s="79"/>
       <c r="M15" s="60">
@@ -4741,10 +5362,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E16" s="88"/>
       <c r="F16" s="89"/>
@@ -4757,7 +5378,7 @@
         <v>87</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L16" s="79"/>
       <c r="M16" s="60">
@@ -4783,10 +5404,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" s="88"/>
       <c r="F17" s="89"/>
@@ -4796,10 +5417,10 @@
         <v>23</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="K17" s="72" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L17" s="79"/>
       <c r="M17" s="60">
@@ -4825,10 +5446,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E18" s="88"/>
       <c r="F18" s="89"/>
@@ -4870,7 +5491,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" s="88"/>
       <c r="F19" s="89"/>
@@ -4900,7 +5521,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" s="88" t="s">
         <v>42</v>
@@ -4914,11 +5535,11 @@
         <v>21</v>
       </c>
       <c r="N20" s="49" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O20" s="64"/>
       <c r="P20" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="38" t="s">
         <v>16</v>
@@ -4933,7 +5554,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D21" s="88" t="s">
         <v>38</v>
@@ -4947,7 +5568,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O21" s="28"/>
       <c r="P21" s="31" t="s">
@@ -4966,10 +5587,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22" s="92"/>
       <c r="F22" s="93"/>
@@ -4980,11 +5601,11 @@
         <v>23</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="31" t="s">
         <v>24</v>
@@ -5000,7 +5621,7 @@
         <v>24</v>
       </c>
       <c r="N23" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O23" s="28"/>
       <c r="P23" s="31" t="s">
@@ -5020,7 +5641,7 @@
         <v>19</v>
       </c>
       <c r="N24" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="31" t="s">
@@ -5040,7 +5661,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O25" s="28"/>
       <c r="P25" s="31" t="s">
@@ -5060,7 +5681,7 @@
         <v>16</v>
       </c>
       <c r="N26" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O26" s="28"/>
       <c r="P26" s="31" t="s">
@@ -5080,7 +5701,7 @@
         <v>17</v>
       </c>
       <c r="N27" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="31" t="s">
@@ -5100,14 +5721,14 @@
         <v>19</v>
       </c>
       <c r="N28" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="31" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="R28" s="31"/>
       <c r="S28" s="34"/>
@@ -5118,14 +5739,14 @@
         <v>11</v>
       </c>
       <c r="N29" s="46" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O29" s="28"/>
       <c r="P29" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="Q29" s="31" t="s">
-        <v>98</v>
       </c>
       <c r="R29" s="31" t="s">
         <v>20</v>
@@ -5138,7 +5759,7 @@
         <v>24</v>
       </c>
       <c r="N30" s="57" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O30" s="65"/>
       <c r="P30" s="39" t="s">
@@ -5169,18 +5790,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="J7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -5214,28 +5835,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
+      <c r="D2" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="10"/>
       <c r="H3" s="68"/>
       <c r="I3" s="24" t="s">
@@ -5248,11 +5869,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="7"/>
       <c r="H4" s="69"/>
       <c r="I4" s="24" t="s">
@@ -5265,11 +5886,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="7"/>
       <c r="H5" s="70"/>
       <c r="I5" s="28" t="s">
@@ -5286,30 +5907,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
     </row>
     <row r="8" spans="2:19" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5385,15 +6006,15 @@
       <c r="J9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="102" t="s">
-        <v>124</v>
+      <c r="K9" s="100" t="s">
+        <v>121</v>
       </c>
       <c r="L9" s="52"/>
       <c r="M9" s="59">
         <v>21</v>
       </c>
       <c r="N9" s="76" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="74" t="s">
@@ -5412,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="88" t="s">
         <v>39</v>
@@ -5437,7 +6058,7 @@
         <v>24</v>
       </c>
       <c r="N10" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O10" s="31"/>
       <c r="P10" s="73" t="s">
@@ -5456,10 +6077,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="89"/>
@@ -5479,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O11" s="31"/>
       <c r="P11" s="73" t="s">
@@ -5498,7 +6119,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>38</v>
@@ -5514,14 +6135,14 @@
         <v>37</v>
       </c>
       <c r="K12" s="72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L12" s="52"/>
       <c r="M12" s="60">
         <v>22</v>
       </c>
       <c r="N12" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O12" s="31"/>
       <c r="P12" s="73" t="s">
@@ -5540,7 +6161,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>46</v>
@@ -5563,7 +6184,7 @@
         <v>23</v>
       </c>
       <c r="N13" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O13" s="31"/>
       <c r="P13" s="73" t="s">
@@ -5582,7 +6203,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>46</v>
@@ -5598,14 +6219,14 @@
         <v>87</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L14" s="52"/>
       <c r="M14" s="60">
         <v>26</v>
       </c>
       <c r="N14" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O14" s="31"/>
       <c r="P14" s="73" t="s">
@@ -5624,7 +6245,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>38</v>
@@ -5640,14 +6261,14 @@
         <v>93</v>
       </c>
       <c r="K15" s="72" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L15" s="52"/>
       <c r="M15" s="60">
         <v>27</v>
       </c>
       <c r="N15" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O15" s="31"/>
       <c r="P15" s="73" t="s">
@@ -5666,10 +6287,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E16" s="45"/>
       <c r="F16" s="89"/>
@@ -5679,17 +6300,17 @@
         <v>28</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L16" s="52"/>
       <c r="M16" s="60">
         <v>25</v>
       </c>
       <c r="N16" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O16" s="31"/>
       <c r="P16" s="73" t="s">
@@ -5708,10 +6329,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="89"/>
@@ -5721,17 +6342,17 @@
         <v>29</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K17" s="72" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L17" s="52"/>
       <c r="M17" s="60">
         <v>25</v>
       </c>
       <c r="N17" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O17" s="31"/>
       <c r="P17" s="73" t="s">
@@ -5750,7 +6371,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>38</v>
@@ -5763,17 +6384,17 @@
         <v>30</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K18" s="72" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="60">
         <v>25</v>
       </c>
       <c r="N18" s="77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O18" s="31"/>
       <c r="P18" s="73" t="s">
@@ -5792,7 +6413,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>38</v>
@@ -5804,18 +6425,18 @@
       <c r="I19" s="32">
         <v>31</v>
       </c>
-      <c r="J19" s="103" t="s">
-        <v>171</v>
+      <c r="J19" s="101" t="s">
+        <v>161</v>
       </c>
       <c r="K19" s="83" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="61">
         <v>28</v>
       </c>
       <c r="N19" s="80" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O19" s="62"/>
       <c r="P19" s="81" t="s">
@@ -5834,7 +6455,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>38</v>
@@ -5848,11 +6469,11 @@
         <v>29</v>
       </c>
       <c r="N20" s="49" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O20" s="64"/>
       <c r="P20" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="38" t="s">
         <v>16</v>
@@ -5867,7 +6488,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>40</v>
@@ -5881,7 +6502,7 @@
         <v>26</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O21" s="28"/>
       <c r="P21" s="31" t="s">
@@ -5900,7 +6521,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>42</v>
@@ -5914,11 +6535,11 @@
         <v>30</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="31" t="s">
         <v>24</v>
@@ -5933,7 +6554,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>38</v>
@@ -5943,30 +6564,30 @@
       <c r="G23" s="56"/>
       <c r="H23" s="44"/>
       <c r="L23" s="52"/>
-      <c r="M23" s="123">
+      <c r="M23" s="102">
         <v>5</v>
       </c>
-      <c r="N23" s="124" t="s">
-        <v>165</v>
+      <c r="N23" s="103" t="s">
+        <v>155</v>
       </c>
       <c r="O23" s="70"/>
-      <c r="P23" s="125" t="s">
+      <c r="P23" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="125" t="s">
+      <c r="Q23" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="R23" s="125" t="s">
+      <c r="R23" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="126"/>
+      <c r="S23" s="105"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="97">
         <v>16</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>41</v>
@@ -5980,7 +6601,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="31" t="s">
@@ -5999,7 +6620,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>38</v>
@@ -6013,7 +6634,7 @@
         <v>31</v>
       </c>
       <c r="N25" s="46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O25" s="28"/>
       <c r="P25" s="31" t="s">
@@ -6032,10 +6653,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
@@ -6046,7 +6667,7 @@
         <v>22</v>
       </c>
       <c r="N26" s="46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O26" s="28"/>
       <c r="P26" s="31" t="s">
@@ -6065,7 +6686,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D27" s="45" t="s">
         <v>38</v>
@@ -6079,7 +6700,7 @@
         <v>23</v>
       </c>
       <c r="N27" s="46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="31" t="s">
@@ -6098,7 +6719,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>38</v>
@@ -6112,14 +6733,14 @@
         <v>13</v>
       </c>
       <c r="N28" s="46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="31" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="R28" s="31"/>
       <c r="S28" s="34"/>
@@ -6130,14 +6751,14 @@
         <v>2</v>
       </c>
       <c r="N29" s="46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O29" s="28"/>
       <c r="P29" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="Q29" s="31" t="s">
-        <v>98</v>
       </c>
       <c r="R29" s="31" t="s">
         <v>20</v>
@@ -6146,23 +6767,23 @@
     </row>
     <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L30" s="43"/>
-      <c r="M30" s="127">
+      <c r="M30" s="106">
         <v>6</v>
       </c>
-      <c r="N30" s="132" t="s">
-        <v>165</v>
-      </c>
-      <c r="O30" s="129"/>
-      <c r="P30" s="130" t="s">
+      <c r="N30" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="O30" s="108"/>
+      <c r="P30" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="130" t="s">
+      <c r="Q30" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="R30" s="130" t="s">
+      <c r="R30" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="131"/>
+      <c r="S30" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="8">
